--- a/Computacion/Informe Final/Láminas/Matrices.xlsx
+++ b/Computacion/Informe Final/Láminas/Matrices.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\UAI-Cuatrimestre2\Computacion\Informe Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\UAI-Cuatrimestre2\Computacion\Informe Final\Láminas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81ACF7C-0BA3-4E06-ACD2-22C55607E6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A066D6-C2D4-4635-9FD9-E3E61C9D46F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="0" windowWidth="15495" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -135,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -203,6 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AG27"/>
+  <dimension ref="A2:AI27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P14" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AI25" sqref="AI25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,6 +496,7 @@
     <col min="15" max="15" width="8.7109375" customWidth="1"/>
     <col min="16" max="33" width="4.7109375" customWidth="1"/>
     <col min="34" max="34" width="8.7109375" customWidth="1"/>
+    <col min="35" max="35" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -797,19 +799,19 @@
       </c>
       <c r="Q13" s="14">
         <f t="shared" ref="Q13:T16" ca="1" si="0">RANDBETWEEN(-10,10)</f>
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="R13" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="S13" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="T13" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>10</v>
       </c>
       <c r="U13" s="7"/>
       <c r="V13" s="8" t="s">
@@ -817,19 +819,19 @@
       </c>
       <c r="W13" s="14">
         <f t="shared" ref="W13:Z16" ca="1" si="1">RANDBETWEEN(-10,10)</f>
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="X13" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>-9</v>
       </c>
       <c r="Z13" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="AA13" s="7"/>
       <c r="AB13" s="8" t="s">
@@ -837,19 +839,19 @@
       </c>
       <c r="AC13" s="17" cm="1">
         <f t="array" aca="1" ref="AC13:AF16" ca="1">MMULT(Q13:T16,W13:Z16)</f>
-        <v>-79</v>
+        <v>-54</v>
       </c>
       <c r="AD13" s="13">
         <f ca="1"/>
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="AE13" s="13">
         <f ca="1"/>
-        <v>-21</v>
+        <v>147</v>
       </c>
       <c r="AF13" s="18">
         <f ca="1"/>
-        <v>-157</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -892,29 +894,29 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>-10</v>
       </c>
       <c r="R14" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="S14" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T14" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="7"/>
       <c r="V14" s="8"/>
       <c r="W14" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="X14" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="Y14" s="15">
         <f t="shared" ca="1" si="1"/>
@@ -922,25 +924,25 @@
       </c>
       <c r="Z14" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AA14" s="7"/>
       <c r="AB14" s="8"/>
       <c r="AC14" s="17">
         <f ca="1"/>
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="AD14" s="13">
         <f ca="1"/>
-        <v>45</v>
+        <v>-7</v>
       </c>
       <c r="AE14" s="13">
         <f ca="1"/>
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="AF14" s="18">
         <f ca="1"/>
-        <v>-67</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -973,85 +975,85 @@
       </c>
       <c r="Q15" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R15" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S15" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="T15" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
       <c r="W15" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="X15" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z15" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="AA15" s="7"/>
       <c r="AB15" s="7"/>
       <c r="AC15" s="17">
         <f ca="1"/>
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="AD15" s="13">
         <f ca="1"/>
-        <v>-70</v>
+        <v>-40</v>
       </c>
       <c r="AE15" s="13">
         <f ca="1"/>
-        <v>42</v>
+        <v>-10</v>
       </c>
       <c r="AF15" s="18">
         <f ca="1"/>
-        <v>96</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q16" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="R16" s="12">
-        <f t="shared" ref="Q16:S16" ca="1" si="2">RANDBETWEEN(-10,10)</f>
-        <v>-5</v>
+        <f t="shared" ref="R16" ca="1" si="2">RANDBETWEEN(-10,10)</f>
+        <v>-2</v>
       </c>
       <c r="S16" s="15">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>-10</v>
       </c>
       <c r="T16" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>-9</v>
+        <v>7</v>
       </c>
       <c r="W16" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>-9</v>
       </c>
       <c r="X16" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y16" s="15">
         <f t="shared" ca="1" si="1"/>
-        <v>-7</v>
+        <v>8</v>
       </c>
       <c r="Z16" s="16">
         <f t="shared" ca="1" si="1"/>
@@ -1059,22 +1061,22 @@
       </c>
       <c r="AC16" s="17">
         <f ca="1"/>
-        <v>-65</v>
+        <v>-215</v>
       </c>
       <c r="AD16" s="11">
         <f ca="1"/>
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="AE16" s="13">
         <f ca="1"/>
-        <v>13</v>
+        <v>-26</v>
       </c>
       <c r="AF16" s="18">
         <f ca="1"/>
-        <v>-98</v>
-      </c>
-    </row>
-    <row r="17" spans="2:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <f>B13*G13+C13*G14+D13*G15</f>
         <v>3</v>
@@ -1100,7 +1102,7 @@
       <c r="Z17" s="7"/>
       <c r="AC17" s="7"/>
     </row>
-    <row r="18" spans="2:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <f>B14*G13+C14*G14+D14*G15</f>
         <v>3</v>
@@ -1129,58 +1131,62 @@
       <c r="K18" s="5"/>
       <c r="Q18" s="21">
         <f ca="1">Q13</f>
-        <v>-8</v>
+        <v>-4</v>
       </c>
       <c r="R18" s="19">
         <f t="shared" ref="R18:R19" ca="1" si="3">R13</f>
-        <v>-9</v>
+        <v>3</v>
       </c>
       <c r="S18" s="13"/>
       <c r="T18" s="19">
         <f ca="1">S13</f>
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="U18" s="22">
         <f t="shared" ref="U18:U19" ca="1" si="4">T13</f>
-        <v>-9</v>
+        <v>10</v>
       </c>
       <c r="W18" s="23">
         <f ca="1">W13</f>
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="X18" s="20">
         <f t="shared" ref="X18:X19" ca="1" si="5">X13</f>
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="7"/>
       <c r="Z18" s="20">
         <f ca="1">Y13</f>
-        <v>3</v>
+        <v>-9</v>
       </c>
       <c r="AA18" s="24">
         <f t="shared" ref="AA18:AA19" ca="1" si="6">Z13</f>
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="AB18" s="15"/>
       <c r="AC18" s="15" cm="1">
         <f t="array" aca="1" ref="AC18:AD19" ca="1">MMULT(Q18:R19,W18:X19)</f>
-        <v>-44</v>
+        <v>46</v>
       </c>
       <c r="AD18" s="15">
         <f ca="1"/>
-        <v>74</v>
+        <v>-12</v>
       </c>
       <c r="AE18" s="15"/>
       <c r="AF18" s="15" cm="1">
         <f t="array" aca="1" ref="AF18:AG19" ca="1">MMULT(T18:U19,Z18:AA19)</f>
-        <v>-75</v>
+        <v>109</v>
       </c>
       <c r="AG18" s="15">
         <f ca="1"/>
-        <v>-57</v>
-      </c>
-    </row>
-    <row r="19" spans="2:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="AI18" s="25">
+        <f>POWER(2,37)</f>
+        <v>137438953472</v>
+      </c>
+    </row>
+    <row r="19" spans="2:35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <f>B15*G13+C15*G14+D15*G15</f>
         <v>7</v>
@@ -1203,59 +1209,62 @@
         <v>5</v>
       </c>
       <c r="Q19" s="21">
-        <f t="shared" ref="Q19:R19" ca="1" si="7">Q14</f>
-        <v>9</v>
+        <f t="shared" ref="Q19" ca="1" si="7">Q14</f>
+        <v>-10</v>
       </c>
       <c r="R19" s="19">
         <f t="shared" ca="1" si="3"/>
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="S19" s="13"/>
       <c r="T19" s="19">
-        <f t="shared" ref="T19:U19" ca="1" si="8">S14</f>
-        <v>10</v>
+        <f t="shared" ref="T19" ca="1" si="8">S14</f>
+        <v>5</v>
       </c>
       <c r="U19" s="22">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="23">
-        <f t="shared" ref="W19:X19" ca="1" si="9">W14</f>
-        <v>4</v>
+        <f t="shared" ref="W19" ca="1" si="9">W14</f>
+        <v>10</v>
       </c>
       <c r="X19" s="20">
         <f t="shared" ca="1" si="5"/>
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="Y19" s="7"/>
       <c r="Z19" s="20">
-        <f t="shared" ref="Z19:AA19" ca="1" si="10">Y14</f>
+        <f t="shared" ref="Z19" ca="1" si="10">Y14</f>
         <v>10</v>
       </c>
       <c r="AA19" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AB19" s="15"/>
       <c r="AC19" s="15">
         <f ca="1"/>
-        <v>-15</v>
+        <v>70</v>
       </c>
       <c r="AD19" s="15">
         <f ca="1"/>
-        <v>-51</v>
+        <v>-12</v>
       </c>
       <c r="AE19" s="15"/>
       <c r="AF19" s="15">
         <f ca="1"/>
-        <v>40</v>
+        <v>-45</v>
       </c>
       <c r="AG19" s="15">
         <f ca="1"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-30</v>
+      </c>
+      <c r="AI19" s="25">
+        <v>16785408</v>
+      </c>
+    </row>
+    <row r="20" spans="2:35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q20" s="17"/>
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
@@ -1272,91 +1281,96 @@
       <c r="AE20" s="15"/>
       <c r="AF20" s="15"/>
       <c r="AG20" s="15"/>
-    </row>
-    <row r="21" spans="2:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AI20" s="25"/>
+    </row>
+    <row r="21" spans="2:35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q21" s="21">
         <f ca="1">Q15</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R21" s="19">
         <f t="shared" ref="R21:R22" ca="1" si="11">R15</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S21" s="13"/>
       <c r="T21" s="19">
         <f ca="1">S15</f>
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="U21" s="22">
         <f t="shared" ref="U21:U22" ca="1" si="12">T15</f>
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="W21" s="14">
         <f ca="1">W15</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="X21" s="15">
         <f t="shared" ref="X21:X22" ca="1" si="13">X15</f>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Y21" s="7"/>
       <c r="Z21" s="15">
         <f ca="1">Y15</f>
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AA21" s="16">
         <f t="shared" ref="AA21:AA22" ca="1" si="14">Z15</f>
-        <v>-5</v>
+        <v>7</v>
       </c>
       <c r="AB21" s="15"/>
       <c r="AC21" s="15" cm="1">
         <f t="array" aca="1" ref="AC21:AD22" ca="1">MMULT(Q21:R22,W21:X22)</f>
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="AD21" s="15">
         <f ca="1"/>
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="AE21" s="15"/>
       <c r="AF21" s="15" cm="1">
         <f t="array" aca="1" ref="AF21:AG22" ca="1">MMULT(T21:U22,Z21:AA22)</f>
-        <v>-39</v>
+        <v>-9</v>
       </c>
       <c r="AG21" s="15">
         <f ca="1"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="AI21" s="25">
+        <f>POWER(2,12)</f>
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="22" spans="2:35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Q22" s="21">
-        <f t="shared" ref="Q22:R22" ca="1" si="15">Q16</f>
-        <v>-4</v>
+        <f t="shared" ref="Q22" ca="1" si="15">Q16</f>
+        <v>8</v>
       </c>
       <c r="R22" s="19">
         <f t="shared" ca="1" si="11"/>
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="S22" s="7"/>
       <c r="T22" s="19">
-        <f t="shared" ref="T22:U22" ca="1" si="16">S16</f>
-        <v>2</v>
+        <f t="shared" ref="T22" ca="1" si="16">S16</f>
+        <v>-10</v>
       </c>
       <c r="U22" s="22">
         <f t="shared" ca="1" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="W22" s="14">
+        <f t="shared" ref="W22" ca="1" si="17">W16</f>
         <v>-9</v>
-      </c>
-      <c r="W22" s="14">
-        <f t="shared" ref="W22:X22" ca="1" si="17">W16</f>
-        <v>5</v>
       </c>
       <c r="X22" s="15">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Y22" s="7"/>
       <c r="Z22" s="15">
-        <f t="shared" ref="Z22:AA22" ca="1" si="18">Y16</f>
-        <v>-7</v>
+        <f t="shared" ref="Z22" ca="1" si="18">Y16</f>
+        <v>8</v>
       </c>
       <c r="AA22" s="16">
         <f t="shared" ca="1" si="14"/>
@@ -1365,44 +1379,56 @@
       <c r="AB22" s="15"/>
       <c r="AC22" s="15">
         <f ca="1"/>
-        <v>-33</v>
+        <v>98</v>
       </c>
       <c r="AD22" s="15">
         <f ca="1"/>
-        <v>-66</v>
+        <v>-10</v>
       </c>
       <c r="AE22" s="15"/>
       <c r="AF22" s="15">
         <f ca="1"/>
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="AG22" s="15">
         <f ca="1"/>
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="23" spans="2:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>-42</v>
+      </c>
+      <c r="AI22" s="25"/>
+    </row>
+    <row r="23" spans="2:35" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AB23" s="15"/>
       <c r="AC23" s="15"/>
       <c r="AD23" s="15"/>
       <c r="AE23" s="15"/>
       <c r="AF23" s="15"/>
       <c r="AG23" s="15"/>
-    </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AI23" s="25">
+        <f>AI19*AI21*2</f>
+        <v>137506062336</v>
+      </c>
+    </row>
+    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AI24" s="25"/>
+    </row>
+    <row r="25" spans="2:35" x14ac:dyDescent="0.25">
       <c r="Q25">
         <v>4096</v>
       </c>
       <c r="S25">
         <v>496</v>
       </c>
-    </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AI25" s="25">
+        <f>POWER(10,9)</f>
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:35" x14ac:dyDescent="0.25">
       <c r="Q26">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:35" x14ac:dyDescent="0.25">
       <c r="Q27">
         <f>Q25/Q26</f>
         <v>128</v>
@@ -1410,6 +1436,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>